--- a/biology/Zoologie/Beaufortia_kweichowensis/Beaufortia_kweichowensis.xlsx
+++ b/biology/Zoologie/Beaufortia_kweichowensis/Beaufortia_kweichowensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Beaufortia kweichowensis, communément appelé Suceur de Bornéo, Pléco de Hong Kong ou Loche de Chine[2], est une espèce de poissons de la famille des Gastromyzontidae et qui est élevable en aquarium.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Beaufortia kweichowensis, communément appelé Suceur de Bornéo, Pléco de Hong Kong ou Loche de Chine, est une espèce de poissons de la famille des Gastromyzontidae et qui est élevable en aquarium.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (10 février 2021)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (10 février 2021) :
 sous-espèce Beaufortia kweichowensis gracilicauda Chen &amp; Zheng, 1980
 sous-espèce Beaufortia kweichowensis kweichowensis (Fang, 1931)</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Conditions de vie en aquarium</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, composé de kweichow et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, la province de Kweichow (Guizhou) et plus précisément dans le fleuve Xi[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, composé de kweichow et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, la province de Kweichow (Guizhou) et plus précisément dans le fleuve Xi.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Fang (d), « New and rare species of homalopterid fishes of China », Sinensia, vol. 2, no 3,‎ septembre 1931, p. 41-64 (ISSN 1000-9256).</t>
         </is>
